--- a/doc/ファイル構成一覧表/03_ファイル構成一覧表_C4.xlsx
+++ b/doc/ファイル構成一覧表/03_ファイル構成一覧表_C4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\webアプリ開発\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\ファイル構成一覧表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA684031-C1B0-48F3-9558-53DC54940744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90A773-2248-44B3-A146-B5638DB72D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -644,6 +644,20 @@
     <rPh sb="0" eb="2">
       <t>ミウラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネルランダム作成用JavaScript。</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>random.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1065,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1161,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C42" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C43" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1979,21 +1993,18 @@
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2001,9 +2012,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
@@ -2017,10 +2026,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2029,7 +2038,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
@@ -2044,10 +2053,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2071,10 +2080,10 @@
         <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2097,11 +2106,11 @@
       <c r="E38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>35</v>
+      <c r="F38" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2110,7 +2119,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
@@ -2124,11 +2133,11 @@
       <c r="E39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>36</v>
+      <c r="F39" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2137,7 +2146,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
@@ -2152,10 +2161,10 @@
         <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2164,7 +2173,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
@@ -2179,10 +2188,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2191,7 +2200,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
@@ -2206,10 +2215,10 @@
         <v>50</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2221,24 +2230,57 @@
         <v>111</v>
       </c>
     </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N42" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N43" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M39" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M40" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F24" r:id="rId1" xr:uid="{B1B8F1E2-FA9D-4809-A0FA-03912452BE2A}"/>
     <hyperlink ref="F30" r:id="rId2" xr:uid="{4C067727-973E-4386-A7B7-A7731FDF471F}"/>
-    <hyperlink ref="F38" r:id="rId3" xr:uid="{F62860E7-2878-4311-9038-1E151FE62410}"/>
+    <hyperlink ref="F39" r:id="rId3" xr:uid="{F62860E7-2878-4311-9038-1E151FE62410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2409,12 +2451,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2425,6 +2461,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2443,23 +2496,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/ファイル構成一覧表/03_ファイル構成一覧表_C4.xlsx
+++ b/doc/ファイル構成一覧表/03_ファイル構成一覧表_C4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\ファイル構成一覧表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90A773-2248-44B3-A146-B5638DB72D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AB576-9195-4788-91CF-36ABEFC85040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -318,19 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規会員登録初期表示、登録処理用。</t>
-    <rPh sb="0" eb="6">
-      <t>シンキカイイントウロク</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="16">
-      <t>トウロクショリヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面初期表示、ログイン処理用。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -658,6 +645,87 @@
   </si>
   <si>
     <t>random.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧表示用</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張予定</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>info.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時計、カレンダー、天気情報取得表示用JS</t>
+    <rPh sb="0" eb="2">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー作成中</t>
+    <rPh sb="5" eb="8">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreateUserServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規会員登録処理用</t>
+    <rPh sb="0" eb="6">
+      <t>シンキカイイントウロク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規会員登録初期表示用。</t>
+    <rPh sb="0" eb="6">
+      <t>シンキカイイントウロク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -665,6 +733,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +833,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1090,10 +1170,12 @@
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" customWidth="1"/>
     <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13" customWidth="1"/>
+    <col min="8" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1118,16 +1200,16 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1158,16 +1240,18 @@
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="H3" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1175,7 +1259,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C43" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C46" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1188,22 +1272,21 @@
         <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H4" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1215,24 +1298,34 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="H5" s="7">
+        <v>45457</v>
+      </c>
+      <c r="I5" s="7">
+        <v>45457</v>
+      </c>
+      <c r="J5" s="7">
+        <v>45457</v>
+      </c>
+      <c r="K5" s="7">
+        <v>45457</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -1245,24 +1338,26 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="H6" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -1275,22 +1370,27 @@
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="H7" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1302,19 +1402,21 @@
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="H8" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -1332,16 +1434,18 @@
         <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="H9" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -1356,46 +1460,47 @@
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H10" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="H11" s="7">
+        <v>45457</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -1407,22 +1512,24 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="H12" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -1437,19 +1544,22 @@
         <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="H13" s="7">
+        <f ca="1">TODAY()</f>
+        <v>45459</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -1464,19 +1574,22 @@
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" ref="H14:H22" ca="1" si="1">TODAY()</f>
+        <v>45459</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -1491,19 +1604,22 @@
         <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>45459</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -1514,23 +1630,26 @@
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>41</v>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>45459</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
@@ -1542,22 +1661,25 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>45459</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
@@ -1568,23 +1690,26 @@
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>45459</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
@@ -1599,19 +1724,22 @@
         <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>45459</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
@@ -1626,19 +1754,22 @@
         <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>45459</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
@@ -1647,25 +1778,28 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>45459</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
@@ -1674,25 +1808,28 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>45459</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
@@ -1707,19 +1844,23 @@
         <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="H23" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I23" s="7">
+        <v>45460</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
@@ -1733,20 +1874,22 @@
       <c r="E24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>22</v>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="H24" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
@@ -1761,19 +1904,21 @@
         <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="H25" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
@@ -1787,20 +1932,22 @@
       <c r="E26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>109</v>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="H26" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
@@ -1815,19 +1962,21 @@
         <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="H27" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
@@ -1842,19 +1991,21 @@
         <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="H28" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
@@ -1863,25 +2014,27 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="H29" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
@@ -1890,25 +2043,27 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="H30" s="7">
+        <v>45456</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
@@ -1923,19 +2078,21 @@
         <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="H31" s="7">
+        <v>45461</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
@@ -1949,20 +2106,22 @@
       <c r="E32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>29</v>
+      <c r="F32" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="H32" s="7">
+        <v>45461</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
@@ -1976,24 +2135,37 @@
       <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>30</v>
+      <c r="F33" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="H33" s="7">
+        <v>45457</v>
+      </c>
+      <c r="I33" s="7">
+        <v>45462</v>
+      </c>
+      <c r="J33" s="7">
+        <v>45457</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N33" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2001,18 +2173,22 @@
         <v>49</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="H34" s="7">
+        <v>45461</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
@@ -2020,25 +2196,27 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H35" s="7">
+        <v>45461</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
@@ -2047,21 +2225,23 @@
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="H36" s="7">
+        <v>45461</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
@@ -2069,30 +2249,39 @@
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="H37" s="7">
+        <v>45461</v>
+      </c>
+      <c r="I37" s="7">
+        <v>45462</v>
+      </c>
+      <c r="J37" s="7">
+        <v>45457</v>
+      </c>
+      <c r="K37" s="7">
+        <v>45457</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N37" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
@@ -2107,19 +2296,21 @@
         <v>50</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="H38" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
@@ -2133,20 +2324,22 @@
       <c r="E39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>35</v>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H39" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
@@ -2161,19 +2354,21 @@
         <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="H40" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
@@ -2188,19 +2383,21 @@
         <v>50</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H41" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
@@ -2214,20 +2411,22 @@
       <c r="E42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>38</v>
+      <c r="F42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="H42" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
@@ -2242,33 +2441,122 @@
         <v>50</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="H43" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N43" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N46" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M40" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
-      <formula1>$A$2:$A$7</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M43" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+      <formula1>$A$2:$A$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F24" r:id="rId1" xr:uid="{B1B8F1E2-FA9D-4809-A0FA-03912452BE2A}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{4C067727-973E-4386-A7B7-A7731FDF471F}"/>
-    <hyperlink ref="F39" r:id="rId3" xr:uid="{F62860E7-2878-4311-9038-1E151FE62410}"/>
+    <hyperlink ref="F26" r:id="rId1" xr:uid="{B1B8F1E2-FA9D-4809-A0FA-03912452BE2A}"/>
+    <hyperlink ref="F32" r:id="rId2" xr:uid="{4C067727-973E-4386-A7B7-A7731FDF471F}"/>
+    <hyperlink ref="F42" r:id="rId3" xr:uid="{F62860E7-2878-4311-9038-1E151FE62410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/ファイル構成一覧表/03_ファイル構成一覧表_C4.xlsx
+++ b/doc/ファイル構成一覧表/03_ファイル構成一覧表_C4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\ファイル構成一覧表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AB576-9195-4788-91CF-36ABEFC85040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E94AB-6B7D-4E8D-952E-29AFB5210350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1159,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1259,7 +1259,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C46" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C48" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1478,7 +1478,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1554,7 @@
       </c>
       <c r="H13" s="7">
         <f ca="1">TODAY()</f>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1581,7 +1584,7 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" ref="H14:H22" ca="1" si="1">TODAY()</f>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1611,7 +1614,7 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1641,7 +1644,7 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1671,7 +1674,7 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1701,7 +1704,7 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1731,7 +1734,7 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1761,7 +1764,7 @@
       </c>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1791,7 +1794,7 @@
       </c>
       <c r="H21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1821,7 +1824,7 @@
       </c>
       <c r="H22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2077,23 +2080,15 @@
       <c r="E31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="7">
-        <v>45461</v>
-      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
@@ -2106,23 +2101,15 @@
       <c r="E32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="7">
-        <v>45461</v>
-      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
@@ -2135,30 +2122,22 @@
       <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>117</v>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="H33" s="7">
-        <v>45457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>45462</v>
-      </c>
-      <c r="J33" s="7">
-        <v>45457</v>
-      </c>
+        <v>45461</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
@@ -2172,11 +2151,11 @@
       <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>28</v>
+      <c r="F34" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" s="7">
         <v>45461</v>
@@ -2187,7 +2166,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
@@ -2201,22 +2180,30 @@
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>29</v>
+      <c r="F35" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="H35" s="7">
-        <v>45461</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+        <v>45457</v>
+      </c>
+      <c r="I35" s="7">
+        <v>45462</v>
+      </c>
+      <c r="J35" s="7">
+        <v>45457</v>
+      </c>
       <c r="K35" s="7"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N35" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
@@ -2231,10 +2218,10 @@
         <v>49</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H36" s="7">
         <v>45461</v>
@@ -2245,11 +2232,14 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2257,31 +2247,21 @@
         <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="H37" s="7">
         <v>45461</v>
       </c>
-      <c r="I37" s="7">
-        <v>45462</v>
-      </c>
-      <c r="J37" s="7">
-        <v>45457</v>
-      </c>
-      <c r="K37" s="7">
-        <v>45457</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
@@ -2290,19 +2270,19 @@
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H38" s="7">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -2310,7 +2290,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
@@ -2319,27 +2299,37 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="H39" s="7">
+        <v>45461</v>
+      </c>
+      <c r="I39" s="7">
         <v>45462</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="J39" s="7">
+        <v>45457</v>
+      </c>
+      <c r="K39" s="7">
+        <v>45457</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N39" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
@@ -2354,10 +2344,10 @@
         <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H40" s="7">
         <v>45462</v>
@@ -2368,7 +2358,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
@@ -2383,10 +2373,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H41" s="7">
         <v>45462</v>
@@ -2411,11 +2401,11 @@
       <c r="E42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>35</v>
+      <c r="F42" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H42" s="7">
         <v>45462</v>
@@ -2426,7 +2416,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
@@ -2441,10 +2431,10 @@
         <v>50</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H43" s="7">
         <v>45462</v>
@@ -2455,7 +2445,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
@@ -2469,11 +2459,11 @@
       <c r="E44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>37</v>
+      <c r="F44" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H44" s="7">
         <v>45462</v>
@@ -2484,7 +2474,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.45">
@@ -2499,10 +2489,10 @@
         <v>50</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H45" s="7">
         <v>45462</v>
@@ -2513,7 +2503,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.45">
@@ -2528,10 +2518,10 @@
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" s="7">
         <v>45462</v>
@@ -2542,30 +2532,91 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N46" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N48" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M43" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M45" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F26" r:id="rId1" xr:uid="{B1B8F1E2-FA9D-4809-A0FA-03912452BE2A}"/>
-    <hyperlink ref="F32" r:id="rId2" xr:uid="{4C067727-973E-4386-A7B7-A7731FDF471F}"/>
-    <hyperlink ref="F42" r:id="rId3" xr:uid="{F62860E7-2878-4311-9038-1E151FE62410}"/>
+    <hyperlink ref="F34" r:id="rId2" xr:uid="{4C067727-973E-4386-A7B7-A7731FDF471F}"/>
+    <hyperlink ref="F44" r:id="rId3" xr:uid="{F62860E7-2878-4311-9038-1E151FE62410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2740,27 +2791,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2785,9 +2824,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表/03_ファイル構成一覧表_C4.xlsx
+++ b/doc/ファイル構成一覧表/03_ファイル構成一覧表_C4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\ファイル構成一覧表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E94AB-6B7D-4E8D-952E-29AFB5210350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D1A88-61FB-4C27-B2E5-54A71E58F121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="131">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -725,6 +725,50 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChPostServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各チャンネル画面初期表示。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネルポスト画面用jsp。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chpost.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chpost.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネル画面用JavaScript。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネル投稿画面用JavaScript。</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1159,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1259,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C48" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1431,22 +1475,20 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
-        <v>45456</v>
+        <v>45462</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
@@ -1460,10 +1502,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7">
         <v>45456</v>
@@ -1474,7 +1516,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -1489,13 +1531,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1503,7 +1545,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -1518,13 +1560,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H12" s="7">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1544,17 +1586,16 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
-        <f ca="1">TODAY()</f>
-        <v>45462</v>
+        <v>45456</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1562,7 +1603,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -1577,14 +1618,14 @@
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" ref="H14:H22" ca="1" si="1">TODAY()</f>
-        <v>45462</v>
+        <f ca="1">TODAY()</f>
+        <v>45463</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1592,7 +1633,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -1607,14 +1648,14 @@
         <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>45462</v>
+        <f t="shared" ref="H15:H23" ca="1" si="1">TODAY()</f>
+        <v>45463</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1622,7 +1663,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -1637,14 +1678,14 @@
         <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1652,7 +1693,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
@@ -1667,14 +1708,14 @@
         <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1682,7 +1723,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
@@ -1693,18 +1734,18 @@
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1712,7 +1753,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
@@ -1723,18 +1764,18 @@
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1742,7 +1783,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
@@ -1757,14 +1798,14 @@
         <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1772,7 +1813,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.45">
@@ -1787,14 +1828,14 @@
         <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1802,7 +1843,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.45">
@@ -1817,14 +1858,14 @@
         <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1832,7 +1873,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.45">
@@ -1841,29 +1882,28 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
-        <v>45456</v>
-      </c>
-      <c r="I23" s="7">
-        <v>45460</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v>45463</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
@@ -1878,15 +1918,17 @@
         <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>45456</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7">
+        <v>45460</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="1"/>
@@ -1907,10 +1949,10 @@
         <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="7">
         <v>45456</v>
@@ -1935,11 +1977,11 @@
       <c r="E26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>22</v>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="7">
         <v>45456</v>
@@ -1950,7 +1992,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
@@ -1964,11 +2006,11 @@
       <c r="E27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>23</v>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="7">
         <v>45456</v>
@@ -1979,7 +2021,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
@@ -1994,10 +2036,10 @@
         <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="7">
         <v>45456</v>
@@ -2008,14 +2050,11 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,22 +2062,20 @@
         <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
@@ -2052,10 +2089,10 @@
         <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7">
         <v>45456</v>
@@ -2066,7 +2103,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
@@ -2075,20 +2112,28 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="7">
+        <v>45456</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
@@ -2096,20 +2141,28 @@
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="7">
+        <v>45456</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
@@ -2122,23 +2175,15 @@
       <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="7">
-        <v>45461</v>
-      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
@@ -2151,23 +2196,15 @@
       <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="7">
-        <v>45461</v>
-      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
@@ -2180,30 +2217,22 @@
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>117</v>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7">
-        <v>45457</v>
-      </c>
-      <c r="I35" s="7">
-        <v>45462</v>
-      </c>
-      <c r="J35" s="7">
-        <v>45457</v>
-      </c>
+        <v>45461</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
@@ -2217,11 +2246,11 @@
       <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>28</v>
+      <c r="F36" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" s="7">
         <v>45461</v>
@@ -2232,7 +2261,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
@@ -2246,22 +2275,30 @@
       <c r="E37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>29</v>
+      <c r="F37" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="H37" s="7">
-        <v>45461</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+        <v>45457</v>
+      </c>
+      <c r="I37" s="7">
+        <v>45462</v>
+      </c>
+      <c r="J37" s="7">
+        <v>45457</v>
+      </c>
       <c r="K37" s="7"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N37" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
@@ -2276,10 +2313,10 @@
         <v>49</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H38" s="7">
         <v>45461</v>
@@ -2290,7 +2327,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
@@ -2305,31 +2342,21 @@
         <v>49</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="H39" s="7">
         <v>45461</v>
       </c>
-      <c r="I39" s="7">
-        <v>45462</v>
-      </c>
-      <c r="J39" s="7">
-        <v>45457</v>
-      </c>
-      <c r="K39" s="7">
-        <v>45457</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
@@ -2338,19 +2365,19 @@
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H40" s="7">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -2358,7 +2385,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.45">
@@ -2367,16 +2394,16 @@
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="H41" s="7">
         <v>45462</v>
@@ -2386,9 +2413,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
@@ -2396,16 +2421,16 @@
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="H42" s="7">
         <v>45462</v>
@@ -2415,9 +2440,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
@@ -2425,27 +2448,37 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="H43" s="7">
+        <v>45461</v>
+      </c>
+      <c r="I43" s="7">
         <v>45462</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="J43" s="7">
+        <v>45457</v>
+      </c>
+      <c r="K43" s="7">
+        <v>45457</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N43" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.45">
@@ -2459,11 +2492,11 @@
       <c r="E44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>35</v>
+      <c r="F44" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H44" s="7">
         <v>45462</v>
@@ -2489,10 +2522,10 @@
         <v>50</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H45" s="7">
         <v>45462</v>
@@ -2503,7 +2536,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.45">
@@ -2518,10 +2551,10 @@
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H46" s="7">
         <v>45462</v>
@@ -2532,7 +2565,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.45">
@@ -2547,10 +2580,10 @@
         <v>50</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H47" s="7">
         <v>45462</v>
@@ -2561,7 +2594,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.45">
@@ -2575,11 +2608,11 @@
       <c r="E48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>39</v>
+      <c r="F48" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H48" s="7">
         <v>45462</v>
@@ -2590,36 +2623,143 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="7">
+        <v>45462</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N48" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N52" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M45" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M49" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$8</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" xr:uid="{B1B8F1E2-FA9D-4809-A0FA-03912452BE2A}"/>
-    <hyperlink ref="F34" r:id="rId2" xr:uid="{4C067727-973E-4386-A7B7-A7731FDF471F}"/>
-    <hyperlink ref="F44" r:id="rId3" xr:uid="{F62860E7-2878-4311-9038-1E151FE62410}"/>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{B1B8F1E2-FA9D-4809-A0FA-03912452BE2A}"/>
+    <hyperlink ref="F36" r:id="rId2" xr:uid="{4C067727-973E-4386-A7B7-A7731FDF471F}"/>
+    <hyperlink ref="F48" r:id="rId3" xr:uid="{F62860E7-2878-4311-9038-1E151FE62410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2790,6 +2930,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2797,14 +2946,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2819,6 +2960,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
